--- a/results/5Fold_metabric_kfold.xlsx
+++ b/results/5Fold_metabric_kfold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,6 +1605,106 @@
         <v>1.117757534980774</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>metabric_kfold</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>vmf</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" t="n">
+        <v>42</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5973872863086189</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5817594222782715</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6504336805649691</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2256142792178063</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.563959908485413</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>metabric_kfold</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>vmf</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>42</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>18</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.6223834362556204</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.610392282078452</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6603273159132501</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2230867753837442</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.70448567867279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/5Fold_metabric_kfold.xlsx
+++ b/results/5Fold_metabric_kfold.xlsx
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ordsoftmax</t>
+          <t>deephit</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1490,19 +1490,19 @@
         <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5912459420200593</v>
+        <v>0.5660624465538212</v>
       </c>
       <c r="K21" t="n">
-        <v>0.571374827618562</v>
+        <v>0.5493162965487063</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7192533468339459</v>
+        <v>0.7146488466061068</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1698927143325376</v>
+        <v>0.171134969076555</v>
       </c>
       <c r="N21" t="n">
-        <v>5.403292322158814</v>
+        <v>1.000691342353821</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>deephit</t>
+          <t>ordsoftmax</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1537,22 +1537,22 @@
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5660624465538212</v>
+        <v>0.6499339104035917</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5493162965487063</v>
+        <v>0.6353549033093547</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7146488466061068</v>
+        <v>0.7196431595742181</v>
       </c>
       <c r="M22" t="n">
-        <v>0.171134969076555</v>
+        <v>0.182850474749297</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000691342353821</v>
+        <v>1.117757534980774</v>
       </c>
     </row>
     <row r="23">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ordsoftmax</t>
+          <t>vmf</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1590,19 +1590,19 @@
         <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6499339104035917</v>
+        <v>0.5973872863086189</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6353549033093547</v>
+        <v>0.5817594222782715</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7196431595742181</v>
+        <v>0.6504336805649691</v>
       </c>
       <c r="M23" t="n">
-        <v>0.182850474749297</v>
+        <v>0.2256142792178063</v>
       </c>
       <c r="N23" t="n">
-        <v>1.117757534980774</v>
+        <v>1.563959908485413</v>
       </c>
     </row>
     <row r="24">
@@ -1637,22 +1637,22 @@
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5973872863086189</v>
+        <v>0.6223834362556204</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5817594222782715</v>
+        <v>0.610392282078452</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6504336805649691</v>
+        <v>0.6603273159132501</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2256142792178063</v>
+        <v>0.2230867753837442</v>
       </c>
       <c r="N24" t="n">
-        <v>1.563959908485413</v>
+        <v>1.70448567867279</v>
       </c>
     </row>
     <row r="25">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>vmf</t>
+          <t>ordsoftmax</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1690,19 +1690,19 @@
         <v>18</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6223834362556204</v>
+        <v>0.6609513167775792</v>
       </c>
       <c r="K25" t="n">
-        <v>0.610392282078452</v>
+        <v>0.6452798452390981</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6603273159132501</v>
+        <v>0.718604535350725</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2230867753837442</v>
+        <v>0.1791368866779764</v>
       </c>
       <c r="N25" t="n">
-        <v>1.70448567867279</v>
+        <v>1.037853324413299</v>
       </c>
     </row>
   </sheetData>
